--- a/ProdData/ProdData.xlsx
+++ b/ProdData/ProdData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpnor\Documents\GitHub\Project-SERVE\ProdData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5125B9EE-E3C3-429D-9FB7-21A731062787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5F65B8-8CD3-48C2-982B-F30CFC1F3C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Executive" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12435" uniqueCount="3280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12433" uniqueCount="3278">
   <si>
     <t>StdNo</t>
   </si>
@@ -9573,12 +9573,6 @@
   </si>
   <si>
     <t>Evaluator Email</t>
-  </si>
-  <si>
-    <t>NumOfTeams</t>
-  </si>
-  <si>
-    <t>TeamSize</t>
   </si>
   <si>
     <t>a2berish@uwaterloo.ca</t>
@@ -9967,23 +9961,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -10021,14 +9999,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10855,10 +10825,10 @@
     <sortCondition ref="B2:B27"/>
   </sortState>
   <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11253,7 +11223,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>3265</v>
+        <v>3263</v>
       </c>
       <c r="B48" t="s">
         <v>1591</v>
@@ -11325,7 +11295,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>3264</v>
+        <v>3262</v>
       </c>
       <c r="B57" t="s">
         <v>1592</v>
@@ -11373,7 +11343,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>3268</v>
+        <v>3266</v>
       </c>
       <c r="B63" t="s">
         <v>1592</v>
@@ -11429,7 +11399,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>3279</v>
+        <v>3277</v>
       </c>
       <c r="B70" t="s">
         <v>1592</v>
@@ -11501,7 +11471,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>3271</v>
+        <v>3269</v>
       </c>
       <c r="B79" t="s">
         <v>1593</v>
@@ -11653,7 +11623,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
       <c r="B98" t="s">
         <v>1594</v>
@@ -11741,7 +11711,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="B6" t="s">
         <v>1631</v>
@@ -12061,7 +12031,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="B46" t="s">
         <v>1648</v>
@@ -12109,7 +12079,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>3210</v>
+        <v>3208</v>
       </c>
       <c r="B52" t="s">
         <v>1649</v>
@@ -12477,7 +12447,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="B98" t="s">
         <v>1661</v>
@@ -12509,7 +12479,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="B102" t="s">
         <v>1662</v>
@@ -12525,7 +12495,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
       <c r="B104" t="s">
         <v>1663</v>
@@ -12549,7 +12519,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="B107" t="s">
         <v>1664</v>
@@ -12853,7 +12823,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>3214</v>
+        <v>3212</v>
       </c>
       <c r="B145" t="s">
         <v>1672</v>
@@ -12877,7 +12847,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
       <c r="B148" t="s">
         <v>1673</v>
@@ -13005,7 +12975,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="B164" t="s">
         <v>1676</v>
@@ -13029,7 +12999,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>3204</v>
+        <v>3202</v>
       </c>
       <c r="B167" t="s">
         <v>1676</v>
@@ -13125,7 +13095,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>3253</v>
+        <v>3251</v>
       </c>
       <c r="B179" t="s">
         <v>1678</v>
@@ -13293,7 +13263,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
       <c r="B200" t="s">
         <v>1683</v>
@@ -13325,7 +13295,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>3270</v>
+        <v>3268</v>
       </c>
       <c r="B204" t="s">
         <v>1684</v>
@@ -13373,7 +13343,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="B210" t="s">
         <v>1685</v>
@@ -13437,7 +13407,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>3219</v>
+        <v>3217</v>
       </c>
       <c r="B218" t="s">
         <v>1686</v>
@@ -13461,7 +13431,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>3217</v>
+        <v>3215</v>
       </c>
       <c r="B221" t="s">
         <v>1687</v>
@@ -13565,7 +13535,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>3235</v>
+        <v>3233</v>
       </c>
       <c r="B234" t="s">
         <v>1689</v>
@@ -13685,7 +13655,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="B249" t="s">
         <v>1691</v>
@@ -13877,7 +13847,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
       <c r="B273" t="s">
         <v>1695</v>
@@ -13909,7 +13879,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
       <c r="B277" t="s">
         <v>1696</v>
@@ -13989,7 +13959,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>3214</v>
+        <v>3212</v>
       </c>
       <c r="B287" t="s">
         <v>1699</v>
@@ -14037,7 +14007,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
       <c r="B293" t="s">
         <v>1701</v>
@@ -14069,7 +14039,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="B297" t="s">
         <v>1702</v>
@@ -14093,7 +14063,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
       <c r="B300" t="s">
         <v>1703</v>
@@ -14189,7 +14159,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>3207</v>
+        <v>3205</v>
       </c>
       <c r="B312" t="s">
         <v>1707</v>
@@ -14213,7 +14183,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>3217</v>
+        <v>3215</v>
       </c>
       <c r="B315" t="s">
         <v>1708</v>
@@ -14549,7 +14519,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="B357" t="s">
         <v>1722</v>
@@ -14757,7 +14727,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="B383" t="s">
         <v>1731</v>
@@ -14821,7 +14791,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>3236</v>
+        <v>3234</v>
       </c>
       <c r="B391" t="s">
         <v>1734</v>
@@ -14853,7 +14823,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
       <c r="B395" t="s">
         <v>1735</v>
@@ -14917,7 +14887,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
       <c r="B403" t="s">
         <v>1738</v>
@@ -15053,7 +15023,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
       <c r="B420" t="s">
         <v>1743</v>
@@ -15157,7 +15127,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>3202</v>
+        <v>3200</v>
       </c>
       <c r="B433" t="s">
         <v>1748</v>
@@ -15437,7 +15407,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>3202</v>
+        <v>3200</v>
       </c>
       <c r="B468" t="s">
         <v>1758</v>
@@ -15645,7 +15615,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="B494" t="s">
         <v>1762</v>
@@ -15741,7 +15711,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>3237</v>
+        <v>3235</v>
       </c>
       <c r="B506" t="s">
         <v>1764</v>
@@ -15797,7 +15767,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="B513" t="s">
         <v>1765</v>
@@ -15909,7 +15879,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>3214</v>
+        <v>3212</v>
       </c>
       <c r="B527" t="s">
         <v>1767</v>
@@ -16069,7 +16039,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="B547" t="s">
         <v>1772</v>
@@ -16109,7 +16079,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>3238</v>
+        <v>3236</v>
       </c>
       <c r="B552" t="s">
         <v>1773</v>
@@ -16125,7 +16095,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>3235</v>
+        <v>3233</v>
       </c>
       <c r="B554" t="s">
         <v>1773</v>
@@ -16149,7 +16119,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
       <c r="B557" t="s">
         <v>1774</v>
@@ -16205,7 +16175,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>3256</v>
+        <v>3254</v>
       </c>
       <c r="B564" t="s">
         <v>1775</v>
@@ -16237,7 +16207,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
       <c r="B568" t="s">
         <v>1776</v>
@@ -16573,7 +16543,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>3253</v>
+        <v>3251</v>
       </c>
       <c r="B610" t="s">
         <v>1784</v>
@@ -16701,7 +16671,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>3236</v>
+        <v>3234</v>
       </c>
       <c r="B626" t="s">
         <v>1787</v>
@@ -16709,7 +16679,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="B627" t="s">
         <v>1787</v>
@@ -16717,7 +16687,7 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
       <c r="B628" t="s">
         <v>1787</v>
@@ -16853,7 +16823,7 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="B645" t="s">
         <v>1790</v>
@@ -17021,7 +16991,7 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="B666" t="s">
         <v>1793</v>
@@ -17253,7 +17223,7 @@
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="B695" t="s">
         <v>1808</v>
@@ -17365,7 +17335,7 @@
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="B709" t="s">
         <v>1814</v>
@@ -17925,7 +17895,7 @@
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="B779" t="s">
         <v>1837</v>
@@ -18149,7 +18119,7 @@
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>3260</v>
+        <v>3258</v>
       </c>
       <c r="B807" t="s">
         <v>1846</v>
@@ -18213,7 +18183,7 @@
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>3274</v>
+        <v>3272</v>
       </c>
       <c r="B815" t="s">
         <v>1849</v>
@@ -18269,7 +18239,7 @@
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>3272</v>
+        <v>3270</v>
       </c>
       <c r="B822" t="s">
         <v>1851</v>
@@ -18317,7 +18287,7 @@
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>3271</v>
+        <v>3269</v>
       </c>
       <c r="B828" t="s">
         <v>1853</v>
@@ -18589,7 +18559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A9598D6-E08E-4F2C-9745-F583715B7AE7}">
   <dimension ref="A1:B396"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -21766,7 +21736,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -46157,7 +46127,7 @@
     <sortCondition ref="C2:C1003"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H840" r:id="rId1" xr:uid="{85FF3CA1-F628-4FE3-B70C-77B6C3FC9443}"/>
@@ -51646,10 +51616,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919AB331-1F0B-46E6-B190-F697F48BF9B6}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51657,7 +51627,7 @@
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -51679,11 +51649,8 @@
       <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
-        <v>3174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1376</v>
       </c>
@@ -51705,11 +51672,8 @@
       <c r="G2" t="s">
         <v>1378</v>
       </c>
-      <c r="H2">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1398</v>
       </c>
@@ -51731,11 +51695,8 @@
       <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="H3">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1578</v>
       </c>
@@ -51757,11 +51718,8 @@
       <c r="G4" t="s">
         <v>1579</v>
       </c>
-      <c r="H4">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1580</v>
       </c>
@@ -51783,11 +51741,8 @@
       <c r="G5" t="s">
         <v>1582</v>
       </c>
-      <c r="H5">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1583</v>
       </c>
@@ -51809,11 +51764,8 @@
       <c r="G6" t="s">
         <v>3</v>
       </c>
-      <c r="H6">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1584</v>
       </c>
@@ -51835,11 +51787,8 @@
       <c r="G7" t="s">
         <v>1579</v>
       </c>
-      <c r="H7">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1585</v>
       </c>
@@ -51861,11 +51810,8 @@
       <c r="G8" t="s">
         <v>1586</v>
       </c>
-      <c r="H8">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1619</v>
       </c>
@@ -51887,11 +51833,8 @@
       <c r="G9" t="s">
         <v>1579</v>
       </c>
-      <c r="H9">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1620</v>
       </c>
@@ -51913,11 +51856,8 @@
       <c r="G10" t="s">
         <v>1579</v>
       </c>
-      <c r="H10">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1621</v>
       </c>
@@ -51939,11 +51879,8 @@
       <c r="G11" t="s">
         <v>1622</v>
       </c>
-      <c r="H11">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1623</v>
       </c>
@@ -51965,11 +51902,8 @@
       <c r="G12" t="s">
         <v>3</v>
       </c>
-      <c r="H12">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1624</v>
       </c>
@@ -51991,11 +51925,8 @@
       <c r="G13" t="s">
         <v>1378</v>
       </c>
-      <c r="H13">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1625</v>
       </c>
@@ -52017,11 +51948,8 @@
       <c r="G14" t="s">
         <v>1586</v>
       </c>
-      <c r="H14">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1626</v>
       </c>
@@ -52043,11 +51971,8 @@
       <c r="G15" t="s">
         <v>1579</v>
       </c>
-      <c r="H15">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1627</v>
       </c>
@@ -52069,11 +51994,8 @@
       <c r="G16" t="s">
         <v>1579</v>
       </c>
-      <c r="H16">
-        <v>99999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1628</v>
       </c>
@@ -52094,9 +52016,6 @@
       </c>
       <c r="G17" t="s">
         <v>1378</v>
-      </c>
-      <c r="H17">
-        <v>99999</v>
       </c>
     </row>
   </sheetData>
@@ -52106,7 +52025,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8EE8C5-8C42-4C7F-B4E5-DA0A8EE61E5D}">
-  <dimension ref="A1:D242"/>
+  <dimension ref="A1:C242"/>
   <sheetViews>
     <sheetView topLeftCell="A216" workbookViewId="0">
       <selection activeCell="C216" sqref="C1:C1048576"/>
@@ -52114,7 +52033,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -52122,3383 +52041,2657 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>3175</v>
-      </c>
-      <c r="D1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1629</v>
       </c>
       <c r="B2" t="s">
         <v>1875</v>
       </c>
-      <c r="C2">
-        <v>999</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1630</v>
       </c>
       <c r="B3" t="s">
         <v>1871</v>
       </c>
-      <c r="C3">
-        <v>999</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1631</v>
       </c>
       <c r="B4" t="s">
         <v>1872</v>
       </c>
-      <c r="C4">
-        <v>999</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1632</v>
       </c>
       <c r="B5" t="s">
         <v>1873</v>
       </c>
-      <c r="C5">
-        <v>999</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1633</v>
       </c>
       <c r="B6" t="s">
         <v>1876</v>
       </c>
-      <c r="C6">
-        <v>999</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1634</v>
       </c>
       <c r="B7" t="s">
         <v>1877</v>
       </c>
-      <c r="C7">
-        <v>999</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1635</v>
       </c>
       <c r="B8" t="s">
         <v>1878</v>
       </c>
-      <c r="C8">
-        <v>999</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1636</v>
       </c>
       <c r="B9" t="s">
         <v>1879</v>
       </c>
-      <c r="C9">
-        <v>999</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1637</v>
       </c>
       <c r="B10" t="s">
         <v>1880</v>
       </c>
-      <c r="C10">
-        <v>999</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1638</v>
       </c>
       <c r="B11" t="s">
         <v>1881</v>
       </c>
-      <c r="C11">
-        <v>999</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1639</v>
       </c>
       <c r="B12" t="s">
         <v>1882</v>
       </c>
-      <c r="C12">
-        <v>999</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1640</v>
       </c>
       <c r="B13" t="s">
         <v>1883</v>
       </c>
-      <c r="C13">
-        <v>999</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1641</v>
       </c>
       <c r="B14" t="s">
         <v>1884</v>
       </c>
-      <c r="C14">
-        <v>999</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1642</v>
       </c>
       <c r="B15" t="s">
         <v>1885</v>
       </c>
-      <c r="C15">
-        <v>999</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1643</v>
       </c>
       <c r="B16" t="s">
         <v>1874</v>
       </c>
-      <c r="C16">
-        <v>999</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1644</v>
       </c>
       <c r="B17" t="s">
         <v>1870</v>
       </c>
-      <c r="C17">
-        <v>999</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1645</v>
       </c>
       <c r="B18" t="s">
         <v>1886</v>
       </c>
-      <c r="C18">
-        <v>999</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1646</v>
       </c>
       <c r="B19" t="s">
         <v>1887</v>
       </c>
-      <c r="C19">
-        <v>999</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1647</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20">
-        <v>999</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1648</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="C21">
-        <v>999</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1649</v>
       </c>
       <c r="B22" t="s">
         <v>2964</v>
       </c>
-      <c r="C22">
-        <v>999</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1650</v>
       </c>
       <c r="B23" t="s">
         <v>68</v>
       </c>
-      <c r="C23">
-        <v>999</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1651</v>
       </c>
       <c r="B24" t="s">
         <v>2965</v>
       </c>
-      <c r="C24">
-        <v>999</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1652</v>
       </c>
       <c r="B25" t="s">
         <v>2966</v>
       </c>
-      <c r="C25">
-        <v>999</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1653</v>
       </c>
       <c r="B26" t="s">
         <v>2967</v>
       </c>
-      <c r="C26">
-        <v>999</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1654</v>
       </c>
       <c r="B27" t="s">
         <v>1876</v>
       </c>
-      <c r="C27">
-        <v>999</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1655</v>
       </c>
       <c r="B28" t="s">
         <v>2968</v>
       </c>
-      <c r="C28">
-        <v>999</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1656</v>
       </c>
       <c r="B29" t="s">
         <v>2969</v>
       </c>
-      <c r="C29">
-        <v>999</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1657</v>
       </c>
       <c r="B30" t="s">
         <v>2970</v>
       </c>
-      <c r="C30">
-        <v>999</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1658</v>
       </c>
       <c r="B31" t="s">
         <v>1887</v>
       </c>
-      <c r="C31">
-        <v>999</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1659</v>
       </c>
       <c r="B32" t="s">
         <v>2971</v>
       </c>
-      <c r="C32">
-        <v>999</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C32" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1660</v>
       </c>
       <c r="B33" t="s">
         <v>2972</v>
       </c>
-      <c r="C33">
-        <v>999</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C33" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1661</v>
       </c>
       <c r="B34" t="s">
         <v>2973</v>
       </c>
-      <c r="C34">
-        <v>999</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C34" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1662</v>
       </c>
       <c r="B35" t="s">
         <v>2974</v>
       </c>
-      <c r="C35">
-        <v>999</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1663</v>
       </c>
       <c r="B36" t="s">
         <v>2975</v>
       </c>
-      <c r="C36">
-        <v>999</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C36" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1664</v>
       </c>
       <c r="B37" t="s">
         <v>2976</v>
       </c>
-      <c r="C37">
-        <v>999</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C37" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1665</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>2977</v>
       </c>
-      <c r="C38">
-        <v>999</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C38" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1666</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>2978</v>
       </c>
-      <c r="C39">
-        <v>999</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C39" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1667</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>2979</v>
       </c>
-      <c r="C40">
-        <v>999</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C40" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1668</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>2980</v>
       </c>
-      <c r="C41">
-        <v>999</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C41" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1669</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>2981</v>
       </c>
-      <c r="C42">
-        <v>999</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C42" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1670</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>2982</v>
       </c>
-      <c r="C43">
-        <v>999</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C43" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1671</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>2983</v>
       </c>
-      <c r="C44">
-        <v>999</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C44" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1672</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>2984</v>
       </c>
-      <c r="C45">
-        <v>999</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C45" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1673</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>2985</v>
       </c>
-      <c r="C46">
-        <v>999</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1674</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>2986</v>
       </c>
-      <c r="C47">
-        <v>999</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C47" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1675</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>2987</v>
       </c>
-      <c r="C48">
-        <v>999</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C48" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1676</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>2988</v>
       </c>
-      <c r="C49">
-        <v>999</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C49" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1677</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>2989</v>
       </c>
-      <c r="C50">
-        <v>999</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="C50" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1678</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>2064</v>
       </c>
-      <c r="C51">
-        <v>999</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C51" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1679</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>2990</v>
       </c>
-      <c r="C52">
-        <v>999</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C52" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1680</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>2991</v>
       </c>
-      <c r="C53">
-        <v>999</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="C53" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1681</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>2992</v>
       </c>
-      <c r="C54">
-        <v>999</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="C54" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1682</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>2993</v>
       </c>
-      <c r="C55">
-        <v>999</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C55" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1683</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>2994</v>
       </c>
-      <c r="C56">
-        <v>999</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C56" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1684</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>2995</v>
       </c>
-      <c r="C57">
-        <v>999</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="C57" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1685</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>2996</v>
       </c>
-      <c r="C58">
-        <v>999</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C58" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1686</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>2997</v>
       </c>
-      <c r="C59">
-        <v>999</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C59" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1687</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>2998</v>
       </c>
-      <c r="C60">
-        <v>999</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C60" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1688</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>2999</v>
       </c>
-      <c r="C61">
-        <v>999</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C61" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1689</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>3000</v>
       </c>
-      <c r="C62">
-        <v>999</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C62" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1690</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>3001</v>
       </c>
-      <c r="C63">
-        <v>999</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C63" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1691</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>3002</v>
       </c>
-      <c r="C64">
-        <v>999</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C64" t="s">
         <v>1583</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1692</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>3003</v>
       </c>
-      <c r="C65">
-        <v>999</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C65" t="s">
         <v>1583</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1693</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>3004</v>
       </c>
-      <c r="C66">
-        <v>999</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C66" t="s">
         <v>1583</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1694</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>3005</v>
       </c>
-      <c r="C67">
-        <v>999</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C67" t="s">
         <v>1583</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1695</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>3006</v>
       </c>
-      <c r="C68">
-        <v>999</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="C68" t="s">
         <v>1583</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1696</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>3007</v>
       </c>
-      <c r="C69">
-        <v>999</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C69" t="s">
         <v>1583</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1697</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>3008</v>
       </c>
-      <c r="C70">
-        <v>999</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="C70" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1698</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>2064</v>
       </c>
-      <c r="C71">
-        <v>999</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="C71" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1699</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>3009</v>
       </c>
-      <c r="C72">
-        <v>999</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="C72" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1700</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>3010</v>
       </c>
-      <c r="C73">
-        <v>999</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="C73" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1701</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>3011</v>
       </c>
-      <c r="C74">
-        <v>999</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="C74" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1702</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>3012</v>
       </c>
-      <c r="C75">
-        <v>999</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="C75" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1703</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>3013</v>
       </c>
-      <c r="C76">
-        <v>999</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="C76" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1704</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>3014</v>
       </c>
-      <c r="C77">
-        <v>999</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="C77" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1705</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>3015</v>
       </c>
-      <c r="C78">
-        <v>999</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="C78" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1706</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>3016</v>
       </c>
-      <c r="C79">
-        <v>999</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="C79" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1707</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>3017</v>
       </c>
-      <c r="C80">
-        <v>999</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="C80" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1708</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>3018</v>
       </c>
-      <c r="C81">
-        <v>999</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="C81" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1709</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>3019</v>
       </c>
-      <c r="C82">
-        <v>999</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="C82" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1710</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>3020</v>
       </c>
-      <c r="C83">
-        <v>999</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="C83" t="s">
         <v>1584</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1711</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>3021</v>
       </c>
-      <c r="C84">
-        <v>999</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="C84" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1712</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>3022</v>
       </c>
-      <c r="C85">
-        <v>999</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="C85" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1713</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>3023</v>
       </c>
-      <c r="C86">
-        <v>999</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="C86" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1714</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>3024</v>
       </c>
-      <c r="C87">
-        <v>999</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="C87" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1715</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>1876</v>
       </c>
-      <c r="C88">
-        <v>999</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="C88" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1716</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>3025</v>
       </c>
-      <c r="C89">
-        <v>999</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="C89" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1717</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>3026</v>
       </c>
-      <c r="C90">
-        <v>999</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="C90" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1718</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>1887</v>
       </c>
-      <c r="C91">
-        <v>999</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="C91" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1719</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>3027</v>
       </c>
-      <c r="C92">
-        <v>999</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="C92" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1720</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>3028</v>
       </c>
-      <c r="C93">
-        <v>999</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="C93" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1721</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>3029</v>
       </c>
-      <c r="C94">
-        <v>999</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="C94" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1722</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>3030</v>
       </c>
-      <c r="C95">
-        <v>999</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="C95" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1723</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>3031</v>
       </c>
-      <c r="C96">
-        <v>999</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="C96" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1724</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>3032</v>
       </c>
-      <c r="C97">
-        <v>999</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="C97" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1725</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>3033</v>
       </c>
-      <c r="C98">
-        <v>999</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="C98" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1726</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>3034</v>
       </c>
-      <c r="C99">
-        <v>999</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="C99" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1727</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>2987</v>
       </c>
-      <c r="C100">
-        <v>999</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="C100" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1728</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>3035</v>
       </c>
-      <c r="C101">
-        <v>999</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="C101" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1729</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>3036</v>
       </c>
-      <c r="C102">
-        <v>999</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="C102" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1730</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>3037</v>
       </c>
-      <c r="C103">
-        <v>999</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="C103" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1731</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>3038</v>
       </c>
-      <c r="C104">
-        <v>999</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="C104" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1732</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>3039</v>
       </c>
-      <c r="C105">
-        <v>999</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="C105" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1733</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>3040</v>
       </c>
-      <c r="C106">
-        <v>999</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="C106" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1734</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>3041</v>
       </c>
-      <c r="C107">
-        <v>999</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="C107" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1735</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>3042</v>
       </c>
-      <c r="C108">
-        <v>999</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="C108" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1736</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>3043</v>
       </c>
-      <c r="C109">
-        <v>999</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="C109" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1737</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>3044</v>
       </c>
-      <c r="C110">
-        <v>999</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="C110" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1738</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>3045</v>
       </c>
-      <c r="C111">
-        <v>999</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="C111" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1739</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>3046</v>
       </c>
-      <c r="C112">
-        <v>999</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="C112" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1740</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>3047</v>
       </c>
-      <c r="C113">
-        <v>999</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="C113" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1741</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>3048</v>
       </c>
-      <c r="C114">
-        <v>999</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="C114" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1742</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>3049</v>
       </c>
-      <c r="C115">
-        <v>999</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="C115" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1743</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>3050</v>
       </c>
-      <c r="C116">
-        <v>999</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="C116" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1744</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>3051</v>
       </c>
-      <c r="C117">
-        <v>999</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="C117" t="s">
         <v>1619</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1745</v>
       </c>
       <c r="B118" t="s">
         <v>3052</v>
       </c>
-      <c r="C118">
-        <v>999</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="C118" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1746</v>
       </c>
       <c r="B119" t="s">
         <v>3053</v>
       </c>
-      <c r="C119">
-        <v>999</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="C119" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1747</v>
       </c>
       <c r="B120" t="s">
         <v>3054</v>
       </c>
-      <c r="C120">
-        <v>999</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="C120" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1748</v>
       </c>
       <c r="B121" t="s">
         <v>3055</v>
       </c>
-      <c r="C121">
-        <v>999</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="C121" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1749</v>
       </c>
       <c r="B122" t="s">
         <v>3056</v>
       </c>
-      <c r="C122">
-        <v>999</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="C122" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1750</v>
       </c>
       <c r="B123" t="s">
         <v>3057</v>
       </c>
-      <c r="C123">
-        <v>999</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="C123" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1751</v>
       </c>
       <c r="B124" t="s">
         <v>3058</v>
       </c>
-      <c r="C124">
-        <v>999</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="C124" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1752</v>
       </c>
       <c r="B125" t="s">
         <v>3059</v>
       </c>
-      <c r="C125">
-        <v>999</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="C125" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1753</v>
       </c>
       <c r="B126" t="s">
         <v>3060</v>
       </c>
-      <c r="C126">
-        <v>999</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="C126" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1754</v>
       </c>
       <c r="B127" t="s">
         <v>3061</v>
       </c>
-      <c r="C127">
-        <v>999</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="C127" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1755</v>
       </c>
       <c r="B128" t="s">
         <v>3062</v>
       </c>
-      <c r="C128">
-        <v>999</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="C128" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1756</v>
       </c>
       <c r="B129" t="s">
         <v>3063</v>
       </c>
-      <c r="C129">
-        <v>999</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="C129" t="s">
         <v>1620</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1757</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>3064</v>
       </c>
-      <c r="C130">
-        <v>999</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="C130" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1758</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>3065</v>
       </c>
-      <c r="C131">
-        <v>999</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="C131" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1759</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>3066</v>
       </c>
-      <c r="C132">
-        <v>999</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="C132" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1760</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>3067</v>
       </c>
-      <c r="C133">
-        <v>999</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="C133" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1761</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>3068</v>
       </c>
-      <c r="C134">
-        <v>999</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="C134" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1762</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>3069</v>
       </c>
-      <c r="C135">
-        <v>999</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="C135" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1763</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>3070</v>
       </c>
-      <c r="C136">
-        <v>999</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="C136" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1764</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>3071</v>
       </c>
-      <c r="C137">
-        <v>999</v>
-      </c>
-      <c r="D137" t="s">
+      <c r="C137" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1765</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>3072</v>
       </c>
-      <c r="C138">
-        <v>999</v>
-      </c>
-      <c r="D138" t="s">
+      <c r="C138" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1766</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>3073</v>
       </c>
-      <c r="C139">
-        <v>999</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="C139" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1767</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>3074</v>
       </c>
-      <c r="C140">
-        <v>999</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="C140" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1768</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>3075</v>
       </c>
-      <c r="C141">
-        <v>999</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="C141" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1769</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>3076</v>
       </c>
-      <c r="C142">
-        <v>999</v>
-      </c>
-      <c r="D142" t="s">
+      <c r="C142" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1770</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>3077</v>
       </c>
-      <c r="C143">
-        <v>999</v>
-      </c>
-      <c r="D143" t="s">
+      <c r="C143" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1771</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>3078</v>
       </c>
-      <c r="C144">
-        <v>999</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="C144" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1772</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>3079</v>
       </c>
-      <c r="C145">
-        <v>999</v>
-      </c>
-      <c r="D145" t="s">
+      <c r="C145" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1773</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>3080</v>
       </c>
-      <c r="C146">
-        <v>999</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="C146" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1774</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>3081</v>
       </c>
-      <c r="C147">
-        <v>999</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="C147" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1775</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>3082</v>
       </c>
-      <c r="C148">
-        <v>999</v>
-      </c>
-      <c r="D148" t="s">
+      <c r="C148" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1776</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>3083</v>
       </c>
-      <c r="C149">
-        <v>999</v>
-      </c>
-      <c r="D149" t="s">
+      <c r="C149" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1777</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>3084</v>
       </c>
-      <c r="C150">
-        <v>999</v>
-      </c>
-      <c r="D150" t="s">
+      <c r="C150" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1778</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>3085</v>
       </c>
-      <c r="C151">
-        <v>999</v>
-      </c>
-      <c r="D151" t="s">
+      <c r="C151" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1779</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>3086</v>
       </c>
-      <c r="C152">
-        <v>999</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="C152" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1780</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>3087</v>
       </c>
-      <c r="C153">
-        <v>999</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="C153" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1781</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>3088</v>
       </c>
-      <c r="C154">
-        <v>999</v>
-      </c>
-      <c r="D154" t="s">
+      <c r="C154" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1782</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>2983</v>
       </c>
-      <c r="C155">
-        <v>999</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="C155" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1783</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>3089</v>
       </c>
-      <c r="C156">
-        <v>999</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="C156" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1784</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>3090</v>
       </c>
-      <c r="C157">
-        <v>999</v>
-      </c>
-      <c r="D157" t="s">
+      <c r="C157" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1785</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>3091</v>
       </c>
-      <c r="C158">
-        <v>999</v>
-      </c>
-      <c r="D158" t="s">
+      <c r="C158" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1786</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>3092</v>
       </c>
-      <c r="C159">
-        <v>999</v>
-      </c>
-      <c r="D159" t="s">
+      <c r="C159" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1787</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>3093</v>
       </c>
-      <c r="C160">
-        <v>999</v>
-      </c>
-      <c r="D160" t="s">
+      <c r="C160" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1788</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C161">
-        <v>999</v>
-      </c>
-      <c r="D161" t="s">
+      <c r="C161" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1789</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>3094</v>
       </c>
-      <c r="C162">
-        <v>999</v>
-      </c>
-      <c r="D162" t="s">
+      <c r="C162" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1790</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C163">
-        <v>999</v>
-      </c>
-      <c r="D163" t="s">
+      <c r="C163" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1791</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>3095</v>
       </c>
-      <c r="C164">
-        <v>999</v>
-      </c>
-      <c r="D164" t="s">
+      <c r="C164" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1792</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>3096</v>
       </c>
-      <c r="C165">
-        <v>999</v>
-      </c>
-      <c r="D165" t="s">
+      <c r="C165" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1793</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>3097</v>
       </c>
-      <c r="C166">
-        <v>999</v>
-      </c>
-      <c r="D166" t="s">
+      <c r="C166" t="s">
         <v>1623</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1794</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>3098</v>
       </c>
-      <c r="C167">
-        <v>999</v>
-      </c>
-      <c r="D167" t="s">
+      <c r="C167" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1795</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>3099</v>
       </c>
-      <c r="C168">
-        <v>999</v>
-      </c>
-      <c r="D168" t="s">
+      <c r="C168" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1796</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>3100</v>
       </c>
-      <c r="C169">
-        <v>999</v>
-      </c>
-      <c r="D169" t="s">
+      <c r="C169" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1797</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>3101</v>
       </c>
-      <c r="C170">
-        <v>999</v>
-      </c>
-      <c r="D170" t="s">
+      <c r="C170" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1798</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>3102</v>
       </c>
-      <c r="C171">
-        <v>999</v>
-      </c>
-      <c r="D171" t="s">
+      <c r="C171" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1799</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>3103</v>
       </c>
-      <c r="C172">
-        <v>999</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="C172" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1800</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>3104</v>
       </c>
-      <c r="C173">
-        <v>999</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="C173" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1801</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>3105</v>
       </c>
-      <c r="C174">
-        <v>999</v>
-      </c>
-      <c r="D174" t="s">
+      <c r="C174" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1802</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>3106</v>
       </c>
-      <c r="C175">
-        <v>999</v>
-      </c>
-      <c r="D175" t="s">
+      <c r="C175" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1803</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>3107</v>
       </c>
-      <c r="C176">
-        <v>999</v>
-      </c>
-      <c r="D176" t="s">
+      <c r="C176" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1804</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>3108</v>
       </c>
-      <c r="C177">
-        <v>999</v>
-      </c>
-      <c r="D177" t="s">
+      <c r="C177" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1805</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>3109</v>
       </c>
-      <c r="C178">
-        <v>999</v>
-      </c>
-      <c r="D178" t="s">
+      <c r="C178" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1806</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>3110</v>
       </c>
-      <c r="C179">
-        <v>999</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="C179" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1807</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>3111</v>
       </c>
-      <c r="C180">
-        <v>999</v>
-      </c>
-      <c r="D180" t="s">
+      <c r="C180" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1808</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>3112</v>
       </c>
-      <c r="C181">
-        <v>999</v>
-      </c>
-      <c r="D181" t="s">
+      <c r="C181" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1809</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>3113</v>
       </c>
-      <c r="C182">
-        <v>999</v>
-      </c>
-      <c r="D182" t="s">
+      <c r="C182" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1810</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>3114</v>
       </c>
-      <c r="C183">
-        <v>999</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="C183" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1811</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>3115</v>
       </c>
-      <c r="C184">
-        <v>999</v>
-      </c>
-      <c r="D184" t="s">
+      <c r="C184" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1812</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>3116</v>
       </c>
-      <c r="C185">
-        <v>999</v>
-      </c>
-      <c r="D185" t="s">
+      <c r="C185" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1813</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>3117</v>
       </c>
-      <c r="C186">
-        <v>999</v>
-      </c>
-      <c r="D186" t="s">
+      <c r="C186" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1814</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>3118</v>
       </c>
-      <c r="C187">
-        <v>999</v>
-      </c>
-      <c r="D187" t="s">
+      <c r="C187" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1815</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>3119</v>
       </c>
-      <c r="C188">
-        <v>999</v>
-      </c>
-      <c r="D188" t="s">
+      <c r="C188" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1816</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>3120</v>
       </c>
-      <c r="C189">
-        <v>999</v>
-      </c>
-      <c r="D189" t="s">
+      <c r="C189" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1817</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>3121</v>
       </c>
-      <c r="C190">
-        <v>999</v>
-      </c>
-      <c r="D190" t="s">
+      <c r="C190" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1818</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>3122</v>
       </c>
-      <c r="C191">
-        <v>999</v>
-      </c>
-      <c r="D191" t="s">
+      <c r="C191" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1819</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>3123</v>
       </c>
-      <c r="C192">
-        <v>999</v>
-      </c>
-      <c r="D192" t="s">
+      <c r="C192" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1820</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>3124</v>
       </c>
-      <c r="C193">
-        <v>999</v>
-      </c>
-      <c r="D193" t="s">
+      <c r="C193" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1821</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>3125</v>
       </c>
-      <c r="C194">
-        <v>999</v>
-      </c>
-      <c r="D194" t="s">
+      <c r="C194" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1822</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>3126</v>
       </c>
-      <c r="C195">
-        <v>999</v>
-      </c>
-      <c r="D195" t="s">
+      <c r="C195" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1823</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>3127</v>
       </c>
-      <c r="C196">
-        <v>999</v>
-      </c>
-      <c r="D196" t="s">
+      <c r="C196" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1824</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>3128</v>
       </c>
-      <c r="C197">
-        <v>999</v>
-      </c>
-      <c r="D197" t="s">
+      <c r="C197" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1825</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>3129</v>
       </c>
-      <c r="C198">
-        <v>999</v>
-      </c>
-      <c r="D198" t="s">
+      <c r="C198" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1826</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>3053</v>
       </c>
-      <c r="C199">
-        <v>999</v>
-      </c>
-      <c r="D199" t="s">
+      <c r="C199" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1827</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>3130</v>
       </c>
-      <c r="C200">
-        <v>999</v>
-      </c>
-      <c r="D200" t="s">
+      <c r="C200" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1828</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>3144</v>
       </c>
-      <c r="C201">
-        <v>999</v>
-      </c>
-      <c r="D201" t="s">
+      <c r="C201" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1829</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>3145</v>
       </c>
-      <c r="C202">
-        <v>999</v>
-      </c>
-      <c r="D202" t="s">
+      <c r="C202" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1830</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>3146</v>
       </c>
-      <c r="C203">
-        <v>999</v>
-      </c>
-      <c r="D203" t="s">
+      <c r="C203" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1831</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>3147</v>
       </c>
-      <c r="C204">
-        <v>999</v>
-      </c>
-      <c r="D204" t="s">
+      <c r="C204" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1832</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>3148</v>
       </c>
-      <c r="C205">
-        <v>999</v>
-      </c>
-      <c r="D205" t="s">
+      <c r="C205" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1833</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>3149</v>
       </c>
-      <c r="C206">
-        <v>999</v>
-      </c>
-      <c r="D206" t="s">
+      <c r="C206" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1834</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>3150</v>
       </c>
-      <c r="C207">
-        <v>999</v>
-      </c>
-      <c r="D207" t="s">
+      <c r="C207" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1835</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>3151</v>
       </c>
-      <c r="C208">
-        <v>999</v>
-      </c>
-      <c r="D208" t="s">
+      <c r="C208" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1836</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>3152</v>
       </c>
-      <c r="C209">
-        <v>999</v>
-      </c>
-      <c r="D209" t="s">
+      <c r="C209" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1837</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>3153</v>
       </c>
-      <c r="C210">
-        <v>999</v>
-      </c>
-      <c r="D210" t="s">
+      <c r="C210" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1838</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>3154</v>
       </c>
-      <c r="C211">
-        <v>999</v>
-      </c>
-      <c r="D211" t="s">
+      <c r="C211" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1839</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>3155</v>
       </c>
-      <c r="C212">
-        <v>999</v>
-      </c>
-      <c r="D212" t="s">
+      <c r="C212" t="s">
         <v>1626</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1840</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>3131</v>
       </c>
-      <c r="C213">
-        <v>999</v>
-      </c>
-      <c r="D213" t="s">
+      <c r="C213" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1841</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>3132</v>
       </c>
-      <c r="C214">
-        <v>999</v>
-      </c>
-      <c r="D214" t="s">
+      <c r="C214" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1842</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>3133</v>
       </c>
-      <c r="C215">
-        <v>999</v>
-      </c>
-      <c r="D215" t="s">
+      <c r="C215" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1843</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>3134</v>
       </c>
-      <c r="C216">
-        <v>999</v>
-      </c>
-      <c r="D216" t="s">
+      <c r="C216" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1844</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>3135</v>
       </c>
-      <c r="C217">
-        <v>999</v>
-      </c>
-      <c r="D217" t="s">
+      <c r="C217" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1845</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>3136</v>
       </c>
-      <c r="C218">
-        <v>999</v>
-      </c>
-      <c r="D218" t="s">
+      <c r="C218" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1846</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>3137</v>
       </c>
-      <c r="C219">
-        <v>999</v>
-      </c>
-      <c r="D219" t="s">
+      <c r="C219" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1847</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>3138</v>
       </c>
-      <c r="C220">
-        <v>999</v>
-      </c>
-      <c r="D220" t="s">
+      <c r="C220" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1848</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>3139</v>
       </c>
-      <c r="C221">
-        <v>999</v>
-      </c>
-      <c r="D221" t="s">
+      <c r="C221" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1849</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>3140</v>
       </c>
-      <c r="C222">
-        <v>999</v>
-      </c>
-      <c r="D222" t="s">
+      <c r="C222" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1850</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>3141</v>
       </c>
-      <c r="C223">
-        <v>999</v>
-      </c>
-      <c r="D223" t="s">
+      <c r="C223" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1851</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>3142</v>
       </c>
-      <c r="C224">
-        <v>999</v>
-      </c>
-      <c r="D224" t="s">
+      <c r="C224" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1852</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>3143</v>
       </c>
-      <c r="C225">
-        <v>999</v>
-      </c>
-      <c r="D225" t="s">
+      <c r="C225" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1853</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>1876</v>
       </c>
-      <c r="C226">
-        <v>999</v>
-      </c>
-      <c r="D226" t="s">
+      <c r="C226" t="s">
         <v>1627</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1854</v>
       </c>
       <c r="B227" t="s">
         <v>3019</v>
       </c>
-      <c r="C227">
-        <v>999</v>
-      </c>
-      <c r="D227" t="s">
+      <c r="C227" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1855</v>
       </c>
       <c r="B228" t="s">
         <v>3156</v>
       </c>
-      <c r="C228">
-        <v>999</v>
-      </c>
-      <c r="D228" t="s">
+      <c r="C228" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1856</v>
       </c>
       <c r="B229" t="s">
         <v>3157</v>
       </c>
-      <c r="C229">
-        <v>999</v>
-      </c>
-      <c r="D229" t="s">
+      <c r="C229" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1857</v>
       </c>
       <c r="B230" t="s">
         <v>3158</v>
       </c>
-      <c r="C230">
-        <v>999</v>
-      </c>
-      <c r="D230" t="s">
+      <c r="C230" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1858</v>
       </c>
       <c r="B231" t="s">
         <v>3159</v>
       </c>
-      <c r="C231">
-        <v>999</v>
-      </c>
-      <c r="D231" t="s">
+      <c r="C231" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1859</v>
       </c>
       <c r="B232" t="s">
         <v>3160</v>
       </c>
-      <c r="C232">
-        <v>999</v>
-      </c>
-      <c r="D232" t="s">
+      <c r="C232" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1860</v>
       </c>
       <c r="B233" t="s">
         <v>3161</v>
       </c>
-      <c r="C233">
-        <v>999</v>
-      </c>
-      <c r="D233" t="s">
+      <c r="C233" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1861</v>
       </c>
       <c r="B234" t="s">
         <v>3162</v>
       </c>
-      <c r="C234">
-        <v>999</v>
-      </c>
-      <c r="D234" t="s">
+      <c r="C234" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1862</v>
       </c>
       <c r="B235" t="s">
         <v>3163</v>
       </c>
-      <c r="C235">
-        <v>999</v>
-      </c>
-      <c r="D235" t="s">
+      <c r="C235" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1863</v>
       </c>
       <c r="B236" t="s">
         <v>3164</v>
       </c>
-      <c r="C236">
-        <v>999</v>
-      </c>
-      <c r="D236" t="s">
+      <c r="C236" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1864</v>
       </c>
       <c r="B237" t="s">
         <v>3165</v>
       </c>
-      <c r="C237">
-        <v>999</v>
-      </c>
-      <c r="D237" t="s">
+      <c r="C237" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1865</v>
       </c>
       <c r="B238" t="s">
         <v>3166</v>
       </c>
-      <c r="C238">
-        <v>999</v>
-      </c>
-      <c r="D238" t="s">
+      <c r="C238" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1866</v>
       </c>
       <c r="B239" t="s">
         <v>3167</v>
       </c>
-      <c r="C239">
-        <v>999</v>
-      </c>
-      <c r="D239" t="s">
+      <c r="C239" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1867</v>
       </c>
       <c r="B240" t="s">
         <v>3168</v>
       </c>
-      <c r="C240">
-        <v>999</v>
-      </c>
-      <c r="D240" t="s">
+      <c r="C240" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1868</v>
       </c>
       <c r="B241" t="s">
         <v>3169</v>
       </c>
-      <c r="C241">
-        <v>999</v>
-      </c>
-      <c r="D241" t="s">
+      <c r="C241" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1869</v>
       </c>
       <c r="B242" t="s">
         <v>3170</v>
       </c>
-      <c r="C242">
-        <v>999</v>
-      </c>
-      <c r="D242" t="s">
+      <c r="C242" t="s">
         <v>1628</v>
       </c>
     </row>
@@ -55642,7 +54835,7 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -55698,7 +54891,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -55738,7 +54931,7 @@
         <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>3178</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -55754,7 +54947,7 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -55810,7 +55003,7 @@
         <v>19</v>
       </c>
       <c r="B34" t="s">
-        <v>3180</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -55826,7 +55019,7 @@
         <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>3181</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -55938,7 +55131,7 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -56026,7 +55219,7 @@
         <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -56042,7 +55235,7 @@
         <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -56050,7 +55243,7 @@
         <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>3185</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -56066,7 +55259,7 @@
         <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -56122,7 +55315,7 @@
         <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -56186,7 +55379,7 @@
         <v>19</v>
       </c>
       <c r="B81" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -56346,7 +55539,7 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>3189</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -56386,7 +55579,7 @@
         <v>19</v>
       </c>
       <c r="B106" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -56714,7 +55907,7 @@
         <v>19</v>
       </c>
       <c r="B147" t="s">
-        <v>3191</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -56746,7 +55939,7 @@
         <v>19</v>
       </c>
       <c r="B151" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -56810,7 +56003,7 @@
         <v>19</v>
       </c>
       <c r="B159" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -57034,7 +56227,7 @@
         <v>19</v>
       </c>
       <c r="B187" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -57074,7 +56267,7 @@
         <v>19</v>
       </c>
       <c r="B192" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -57122,7 +56315,7 @@
         <v>19</v>
       </c>
       <c r="B198" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -57130,7 +56323,7 @@
         <v>19</v>
       </c>
       <c r="B199" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -57170,7 +56363,7 @@
         <v>19</v>
       </c>
       <c r="B204" t="s">
-        <v>3198</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -57250,7 +56443,7 @@
         <v>19</v>
       </c>
       <c r="B214" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -57378,7 +56571,7 @@
         <v>19</v>
       </c>
       <c r="B230" t="s">
-        <v>3200</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -57426,7 +56619,7 @@
         <v>19</v>
       </c>
       <c r="B236" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -57674,7 +56867,7 @@
         <v>19</v>
       </c>
       <c r="B267" t="s">
-        <v>3202</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -57826,7 +57019,7 @@
         <v>19</v>
       </c>
       <c r="B286" t="s">
-        <v>3203</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -57834,7 +57027,7 @@
         <v>19</v>
       </c>
       <c r="B287" t="s">
-        <v>3204</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -57842,7 +57035,7 @@
         <v>19</v>
       </c>
       <c r="B288" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -57874,7 +57067,7 @@
         <v>19</v>
       </c>
       <c r="B292" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -58202,7 +57395,7 @@
         <v>19</v>
       </c>
       <c r="B333" t="s">
-        <v>3207</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -58242,7 +57435,7 @@
         <v>19</v>
       </c>
       <c r="B338" t="s">
-        <v>3208</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -58250,7 +57443,7 @@
         <v>19</v>
       </c>
       <c r="B339" t="s">
-        <v>3209</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -58274,7 +57467,7 @@
         <v>19</v>
       </c>
       <c r="B342" t="s">
-        <v>3210</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -58346,7 +57539,7 @@
         <v>19</v>
       </c>
       <c r="B351" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -58378,7 +57571,7 @@
         <v>19</v>
       </c>
       <c r="B355" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -58426,7 +57619,7 @@
         <v>19</v>
       </c>
       <c r="B361" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -58498,7 +57691,7 @@
         <v>19</v>
       </c>
       <c r="B370" t="s">
-        <v>3214</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -58514,7 +57707,7 @@
         <v>19</v>
       </c>
       <c r="B372" t="s">
-        <v>3215</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -58690,7 +57883,7 @@
         <v>19</v>
       </c>
       <c r="B394" t="s">
-        <v>3216</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -58746,7 +57939,7 @@
         <v>19</v>
       </c>
       <c r="B401" t="s">
-        <v>3217</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -58770,7 +57963,7 @@
         <v>19</v>
       </c>
       <c r="B404" t="s">
-        <v>3218</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -58858,7 +58051,7 @@
         <v>19</v>
       </c>
       <c r="B415" t="s">
-        <v>3219</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -58994,7 +58187,7 @@
         <v>19</v>
       </c>
       <c r="B432" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -59082,7 +58275,7 @@
         <v>19</v>
       </c>
       <c r="B443" t="s">
-        <v>3221</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -59090,7 +58283,7 @@
         <v>19</v>
       </c>
       <c r="B444" t="s">
-        <v>3222</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -59098,7 +58291,7 @@
         <v>19</v>
       </c>
       <c r="B445" t="s">
-        <v>3223</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -59162,7 +58355,7 @@
         <v>19</v>
       </c>
       <c r="B453" t="s">
-        <v>3224</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -59370,7 +58563,7 @@
         <v>19</v>
       </c>
       <c r="B479" t="s">
-        <v>3225</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -59402,7 +58595,7 @@
         <v>19</v>
       </c>
       <c r="B483" t="s">
-        <v>3226</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -59434,7 +58627,7 @@
         <v>19</v>
       </c>
       <c r="B487" t="s">
-        <v>3227</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -59506,7 +58699,7 @@
         <v>19</v>
       </c>
       <c r="B496" t="s">
-        <v>3228</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -59522,7 +58715,7 @@
         <v>19</v>
       </c>
       <c r="B498" t="s">
-        <v>3229</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -59674,7 +58867,7 @@
         <v>20</v>
       </c>
       <c r="B517" t="s">
-        <v>3230</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
@@ -59698,7 +58891,7 @@
         <v>20</v>
       </c>
       <c r="B520" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
@@ -59850,7 +59043,7 @@
         <v>20</v>
       </c>
       <c r="B539" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -59938,7 +59131,7 @@
         <v>20</v>
       </c>
       <c r="B550" t="s">
-        <v>3231</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -60026,7 +59219,7 @@
         <v>20</v>
       </c>
       <c r="B561" t="s">
-        <v>3232</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
@@ -60042,7 +59235,7 @@
         <v>20</v>
       </c>
       <c r="B563" t="s">
-        <v>3233</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -60058,7 +59251,7 @@
         <v>20</v>
       </c>
       <c r="B565" t="s">
-        <v>3234</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -60114,7 +59307,7 @@
         <v>20</v>
       </c>
       <c r="B572" t="s">
-        <v>3235</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -60154,7 +59347,7 @@
         <v>20</v>
       </c>
       <c r="B577" t="s">
-        <v>3236</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
@@ -60162,7 +59355,7 @@
         <v>20</v>
       </c>
       <c r="B578" t="s">
-        <v>3237</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
@@ -60298,7 +59491,7 @@
         <v>20</v>
       </c>
       <c r="B595" t="s">
-        <v>3238</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -60338,7 +59531,7 @@
         <v>20</v>
       </c>
       <c r="B600" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
@@ -60554,7 +59747,7 @@
         <v>20</v>
       </c>
       <c r="B627" t="s">
-        <v>3240</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
@@ -60578,7 +59771,7 @@
         <v>20</v>
       </c>
       <c r="B630" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
@@ -60706,7 +59899,7 @@
         <v>20</v>
       </c>
       <c r="B646" t="s">
-        <v>3242</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
@@ -60786,7 +59979,7 @@
         <v>20</v>
       </c>
       <c r="B656" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
@@ -61154,7 +60347,7 @@
         <v>20</v>
       </c>
       <c r="B702" t="s">
-        <v>3244</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
@@ -61194,7 +60387,7 @@
         <v>20</v>
       </c>
       <c r="B707" t="s">
-        <v>3245</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
@@ -61514,7 +60707,7 @@
         <v>20</v>
       </c>
       <c r="B747" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
@@ -61538,7 +60731,7 @@
         <v>20</v>
       </c>
       <c r="B750" t="s">
-        <v>3246</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
@@ -61618,7 +60811,7 @@
         <v>20</v>
       </c>
       <c r="B760" t="s">
-        <v>3247</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
@@ -61682,7 +60875,7 @@
         <v>20</v>
       </c>
       <c r="B768" t="s">
-        <v>3248</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
@@ -61690,7 +60883,7 @@
         <v>20</v>
       </c>
       <c r="B769" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
@@ -61850,7 +61043,7 @@
         <v>20</v>
       </c>
       <c r="B789" t="s">
-        <v>3249</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
@@ -61930,7 +61123,7 @@
         <v>20</v>
       </c>
       <c r="B799" t="s">
-        <v>3202</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
@@ -62026,7 +61219,7 @@
         <v>20</v>
       </c>
       <c r="B811" t="s">
-        <v>3250</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
@@ -62050,7 +61243,7 @@
         <v>20</v>
       </c>
       <c r="B814" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
@@ -62290,7 +61483,7 @@
         <v>20</v>
       </c>
       <c r="B844" t="s">
-        <v>3251</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
@@ -62322,7 +61515,7 @@
         <v>20</v>
       </c>
       <c r="B848" t="s">
-        <v>3252</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.25">
@@ -62498,7 +61691,7 @@
         <v>20</v>
       </c>
       <c r="B870" t="s">
-        <v>3253</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.25">
@@ -62562,7 +61755,7 @@
         <v>20</v>
       </c>
       <c r="B878" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.25">
@@ -62738,7 +61931,7 @@
         <v>20</v>
       </c>
       <c r="B900" t="s">
-        <v>3254</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.25">
@@ -62850,7 +62043,7 @@
         <v>20</v>
       </c>
       <c r="B914" t="s">
-        <v>3255</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.25">
@@ -63010,7 +62203,7 @@
         <v>20</v>
       </c>
       <c r="B934" t="s">
-        <v>3256</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.25">
@@ -63058,7 +62251,7 @@
         <v>20</v>
       </c>
       <c r="B940" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.25">
@@ -63098,7 +62291,7 @@
         <v>20</v>
       </c>
       <c r="B945" t="s">
-        <v>3257</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.25">
@@ -63202,7 +62395,7 @@
         <v>20</v>
       </c>
       <c r="B958" t="s">
-        <v>3224</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.25">
@@ -63210,7 +62403,7 @@
         <v>20</v>
       </c>
       <c r="B959" t="s">
-        <v>3258</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.25">
@@ -63226,7 +62419,7 @@
         <v>20</v>
       </c>
       <c r="B961" t="s">
-        <v>3259</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.25">
@@ -63306,7 +62499,7 @@
         <v>20</v>
       </c>
       <c r="B971" t="s">
-        <v>3260</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.25">
@@ -63378,7 +62571,7 @@
         <v>20</v>
       </c>
       <c r="B980" t="s">
-        <v>3261</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.25">
@@ -63394,7 +62587,7 @@
         <v>20</v>
       </c>
       <c r="B982" t="s">
-        <v>3225</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.25">
@@ -63746,7 +62939,7 @@
         <v>21</v>
       </c>
       <c r="B1026" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="1027" spans="1:2" x14ac:dyDescent="0.25">
@@ -63946,7 +63139,7 @@
         <v>21</v>
       </c>
       <c r="B1051" t="s">
-        <v>3262</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="1052" spans="1:2" x14ac:dyDescent="0.25">
@@ -63962,7 +63155,7 @@
         <v>21</v>
       </c>
       <c r="B1053" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="1054" spans="1:2" x14ac:dyDescent="0.25">
@@ -64010,7 +63203,7 @@
         <v>21</v>
       </c>
       <c r="B1059" t="s">
-        <v>3263</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="1060" spans="1:2" x14ac:dyDescent="0.25">
@@ -64058,7 +63251,7 @@
         <v>21</v>
       </c>
       <c r="B1065" t="s">
-        <v>3264</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="1066" spans="1:2" x14ac:dyDescent="0.25">
@@ -64482,7 +63675,7 @@
         <v>21</v>
       </c>
       <c r="B1118" t="s">
-        <v>3265</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="1119" spans="1:2" x14ac:dyDescent="0.25">
@@ -64562,7 +63755,7 @@
         <v>21</v>
       </c>
       <c r="B1128" t="s">
-        <v>3266</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="1129" spans="1:2" x14ac:dyDescent="0.25">
@@ -64786,7 +63979,7 @@
         <v>21</v>
       </c>
       <c r="B1156" t="s">
-        <v>3267</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="1157" spans="1:2" x14ac:dyDescent="0.25">
@@ -64794,7 +63987,7 @@
         <v>21</v>
       </c>
       <c r="B1157" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="1158" spans="1:2" x14ac:dyDescent="0.25">
@@ -64810,7 +64003,7 @@
         <v>21</v>
       </c>
       <c r="B1159" t="s">
-        <v>3268</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="1160" spans="1:2" x14ac:dyDescent="0.25">
@@ -64890,7 +64083,7 @@
         <v>21</v>
       </c>
       <c r="B1169" t="s">
-        <v>3269</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="1170" spans="1:2" x14ac:dyDescent="0.25">
@@ -64898,7 +64091,7 @@
         <v>21</v>
       </c>
       <c r="B1170" t="s">
-        <v>3270</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="1171" spans="1:2" x14ac:dyDescent="0.25">
@@ -64978,7 +64171,7 @@
         <v>21</v>
       </c>
       <c r="B1180" t="s">
-        <v>3271</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="1181" spans="1:2" x14ac:dyDescent="0.25">
@@ -65010,7 +64203,7 @@
         <v>21</v>
       </c>
       <c r="B1184" t="s">
-        <v>3272</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="1185" spans="1:2" x14ac:dyDescent="0.25">
@@ -65138,7 +64331,7 @@
         <v>21</v>
       </c>
       <c r="B1200" t="s">
-        <v>3273</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="1201" spans="1:2" x14ac:dyDescent="0.25">
@@ -65162,7 +64355,7 @@
         <v>21</v>
       </c>
       <c r="B1203" t="s">
-        <v>3274</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="1204" spans="1:2" x14ac:dyDescent="0.25">
@@ -65194,7 +64387,7 @@
         <v>21</v>
       </c>
       <c r="B1207" t="s">
-        <v>3275</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="1208" spans="1:2" x14ac:dyDescent="0.25">
@@ -65274,7 +64467,7 @@
         <v>21</v>
       </c>
       <c r="B1217" t="s">
-        <v>3276</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="1218" spans="1:2" x14ac:dyDescent="0.25">
@@ -65586,7 +64779,7 @@
         <v>21</v>
       </c>
       <c r="B1256" t="s">
-        <v>3277</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="1257" spans="1:2" x14ac:dyDescent="0.25">
@@ -65706,7 +64899,7 @@
         <v>21</v>
       </c>
       <c r="B1271" t="s">
-        <v>3278</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="1272" spans="1:2" x14ac:dyDescent="0.25">
@@ -65746,7 +64939,7 @@
         <v>21</v>
       </c>
       <c r="B1276" t="s">
-        <v>3279</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="1277" spans="1:2" x14ac:dyDescent="0.25">
@@ -65786,7 +64979,7 @@
         <v>21</v>
       </c>
       <c r="B1281" t="s">
-        <v>3260</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="1282" spans="1:2" x14ac:dyDescent="0.25">
